--- a/validation_paper/Supplemental_Tables.xlsx
+++ b/validation_paper/Supplemental_Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Library/CloudStorage/Dropbox/Papers/EDGI Physical Activity/Validation Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Library/CloudStorage/Dropbox/Papers/EDGI_Exercise_Validation/validation_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECBFCAA-5186-CC46-8660-4B68EA58FD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402EBDC5-A64E-A842-B4EB-E6FD813EFAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="760" windowWidth="23940" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8376" uniqueCount="1951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8383" uniqueCount="1951">
   <si>
     <t>Variable</t>
   </si>
@@ -6216,7 +6216,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6476,6 +6476,9 @@
       <c r="B15" t="s">
         <v>61</v>
       </c>
+      <c r="C15" t="s">
+        <v>340</v>
+      </c>
       <c r="E15" t="s">
         <v>340</v>
       </c>
@@ -6490,6 +6493,9 @@
       <c r="B16" t="s">
         <v>63</v>
       </c>
+      <c r="C16" t="s">
+        <v>340</v>
+      </c>
       <c r="E16" t="s">
         <v>340</v>
       </c>
@@ -6504,6 +6510,9 @@
       <c r="B17" t="s">
         <v>65</v>
       </c>
+      <c r="C17" t="s">
+        <v>340</v>
+      </c>
       <c r="E17" t="s">
         <v>340</v>
       </c>
@@ -6518,6 +6527,9 @@
       <c r="B18" t="s">
         <v>67</v>
       </c>
+      <c r="C18" t="s">
+        <v>340</v>
+      </c>
       <c r="E18" t="s">
         <v>340</v>
       </c>
@@ -6532,6 +6544,9 @@
       <c r="B19" t="s">
         <v>69</v>
       </c>
+      <c r="C19" t="s">
+        <v>340</v>
+      </c>
       <c r="E19" t="s">
         <v>340</v>
       </c>
@@ -6546,6 +6561,9 @@
       <c r="B20" t="s">
         <v>71</v>
       </c>
+      <c r="C20" t="s">
+        <v>340</v>
+      </c>
       <c r="E20" t="s">
         <v>340</v>
       </c>
@@ -6559,6 +6577,9 @@
       </c>
       <c r="B21" t="s">
         <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>340</v>
       </c>
       <c r="E21" t="s">
         <v>340</v>

--- a/validation_paper/Supplemental_Tables.xlsx
+++ b/validation_paper/Supplemental_Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherineschaumberg/Library/CloudStorage/Dropbox/Papers/EDGI Physical Activity/Validation Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherineschaumberg/Library/CloudStorage/Dropbox/Papers/EDGI_Exercise_Validation/validation_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FA83B3-447F-FE43-9248-A69C8D688F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9093D83A-C508-1640-A10A-E2BD13CF3322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="760" windowWidth="18180" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13700" yWindow="760" windowWidth="18180" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ST2-Sample_Descriptives" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8553" uniqueCount="2019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8586" uniqueCount="2025">
   <si>
     <t>Variable</t>
   </si>
@@ -6097,6 +6097,24 @@
   </si>
   <si>
     <t>2439 (31.0%)</t>
+  </si>
+  <si>
+    <t>Statistic (AU) control</t>
+  </si>
+  <si>
+    <t>51 (49.0%)</t>
+  </si>
+  <si>
+    <t>2 (1.9%)</t>
+  </si>
+  <si>
+    <t>53 (51.0%)</t>
+  </si>
+  <si>
+    <t>44.12 (16.59)</t>
+  </si>
+  <si>
+    <t>NA - Not assessed</t>
   </si>
 </sst>
 </file>
@@ -6430,15 +6448,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6449,25 +6470,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -6477,26 +6501,29 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -6507,25 +6534,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -6536,25 +6566,28 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6565,25 +6598,28 @@
         <v>2018</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
       <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6594,25 +6630,28 @@
         <v>2017</v>
       </c>
       <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
       <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6623,11 +6662,11 @@
         <v>2016</v>
       </c>
       <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" t="s">
         <v>37</v>
       </c>
@@ -6635,13 +6674,16 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -6652,25 +6694,28 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
       <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
       <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -6681,25 +6726,28 @@
         <v>54</v>
       </c>
       <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
       <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
         <v>57</v>
       </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6710,25 +6758,28 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
       <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
         <v>61</v>
       </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
         <v>62</v>
       </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -6739,25 +6790,28 @@
         <v>64</v>
       </c>
       <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
       <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
       <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -6768,25 +6822,28 @@
         <v>69</v>
       </c>
       <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
         <v>71</v>
       </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
       <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
         <v>72</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -6797,25 +6854,28 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
         <v>75</v>
       </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
         <v>76</v>
       </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
       <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
         <v>77</v>
       </c>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -6826,25 +6886,28 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
         <v>79</v>
       </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
       <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
         <v>80</v>
       </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
       <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -6867,13 +6930,16 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
         <v>84</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -6896,13 +6962,16 @@
         <v>37</v>
       </c>
       <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
         <v>87</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -6913,7 +6982,7 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>2020</v>
       </c>
       <c r="E17" t="s">
         <v>37</v>
@@ -6925,13 +6994,16 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
         <v>89</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -6942,25 +7014,28 @@
         <v>93</v>
       </c>
       <c r="D18" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E18" t="s">
         <v>94</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>95</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>96</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>97</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>98</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -6971,25 +7046,28 @@
         <v>101</v>
       </c>
       <c r="D19" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E19" t="s">
         <v>102</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>103</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>105</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>106</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -7000,25 +7078,28 @@
         <v>109</v>
       </c>
       <c r="D20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E20" t="s">
         <v>110</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>90</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>111</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>112</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>113</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -7029,7 +7110,7 @@
         <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
@@ -7041,13 +7122,16 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -7058,25 +7142,28 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
         <v>118</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>119</v>
       </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
       <c r="G22" t="s">
         <v>37</v>
       </c>
       <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
         <v>120</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -7099,13 +7186,16 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
         <v>123</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -7116,25 +7206,28 @@
         <v>37</v>
       </c>
       <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
         <v>126</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>90</v>
       </c>
-      <c r="F24" t="s">
-        <v>37</v>
-      </c>
       <c r="G24" t="s">
         <v>37</v>
       </c>
       <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
         <v>127</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -7157,13 +7250,16 @@
         <v>37</v>
       </c>
       <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s">
         <v>90</v>
       </c>
-      <c r="I25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -7186,13 +7282,16 @@
         <v>37</v>
       </c>
       <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
         <v>131</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -7203,25 +7302,28 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
         <v>133</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>90</v>
       </c>
-      <c r="F27" t="s">
-        <v>37</v>
-      </c>
       <c r="G27" t="s">
         <v>37</v>
       </c>
       <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s">
         <v>134</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -7232,11 +7334,11 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
         <v>90</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
       <c r="F28" t="s">
         <v>37</v>
       </c>
@@ -7244,13 +7346,16 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s">
         <v>136</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -7261,14 +7366,14 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
         <v>2014</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>90</v>
       </c>
-      <c r="F29" t="s">
-        <v>37</v>
-      </c>
       <c r="G29" t="s">
         <v>37</v>
       </c>
@@ -7278,8 +7383,11 @@
       <c r="I29" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -7290,13 +7398,13 @@
         <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
         <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s">
         <v>37</v>
@@ -7307,8 +7415,11 @@
       <c r="I30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -7319,14 +7430,14 @@
         <v>37</v>
       </c>
       <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
         <v>139</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>90</v>
       </c>
-      <c r="F31" t="s">
-        <v>37</v>
-      </c>
       <c r="G31" t="s">
         <v>37</v>
       </c>
@@ -7336,8 +7447,11 @@
       <c r="I31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -7348,25 +7462,28 @@
         <v>142</v>
       </c>
       <c r="D32" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E32" t="s">
         <v>143</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>95</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>144</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>145</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>146</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -7377,25 +7494,28 @@
         <v>149</v>
       </c>
       <c r="D33" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E33" t="s">
         <v>150</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>151</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>152</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>153</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>154</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -7405,28 +7525,36 @@
       <c r="C34" t="s">
         <v>90</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
         <v>90</v>
       </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
       <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
         <v>90</v>
       </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
       <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
         <v>90</v>
       </c>
-      <c r="I34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
